--- a/Forecast.xlsx
+++ b/Forecast.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saifi\Py_Projects\Applied_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FCDA3-255E-434B-A261-8DDFC204101C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694E254-D5F3-44B6-B333-143CDE0FCFAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{D7C5A99B-E51E-4685-9D74-069C6EE8B03E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{D7C5A99B-E51E-4685-9D74-069C6EE8B03E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="3" r:id="rId2"/>
+    <sheet name="Valuation" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Summary!$A$8:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Summary!$B$8:$B$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Summary!$C$8:$C$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Summary!$D$8:$D$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Summary!$E$8:$E$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Summary!$F$8:$F$11</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Q1</t>
   </si>
@@ -47,45 +56,6 @@
   </si>
   <si>
     <t>Year 3</t>
-  </si>
-  <si>
-    <t>Pricing</t>
-  </si>
-  <si>
-    <t>PRICE PER 1,000 UNITS, BY MONTHLY USAGE</t>
-  </si>
-  <si>
-    <t>FEATURE</t>
-  </si>
-  <si>
-    <t>1 - 1,000 UNITS/MONTH</t>
-  </si>
-  <si>
-    <t>1001 - 5 MILLION UNITS/MONTH</t>
-  </si>
-  <si>
-    <t>5,000,001 - 20 MILLION UNITS/MONTH</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>Google's</t>
-  </si>
-  <si>
-    <t>1-1000</t>
-  </si>
-  <si>
-    <t>1k-100k</t>
-  </si>
-  <si>
-    <t>100k+</t>
-  </si>
-  <si>
-    <t>Revenue</t>
   </si>
   <si>
     <t>Avg API Calls per Customer</t>
@@ -148,6 +118,30 @@
     <t>Office Space, Utilities</t>
   </si>
   <si>
+    <t>Lead Generation Revenue (10% of API Calls) * $0.5 per lead</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>Sales Comission (10% of Leads convert to sales) * $25 Avg Sale * 5%</t>
+  </si>
+  <si>
+    <t>Revenue from API Calls</t>
+  </si>
+  <si>
+    <t>Ancillary Revenue</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Primary Revenue (from API Calls)</t>
+  </si>
+  <si>
+    <t>Ancillary Revenue (Lead Gen + Sales Comissions)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WE DEFINE EACH API CALL AS GETTING INFORMATION OF </t>
     </r>
@@ -161,8 +155,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ONE USER FROM INSTAGRAM AND TWITTER</t>
+      <t>ONE USER FROM ONE PLATFORM</t>
     </r>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EBIDTA in 5 Years</t>
+  </si>
+  <si>
+    <t>Valuation in 5 Years</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Post Money Valuation</t>
+  </si>
+  <si>
+    <t>In 5 Years, your stake will be worth</t>
+  </si>
+  <si>
+    <t>Return on Investment</t>
+  </si>
+  <si>
+    <t>Premoney Valuation</t>
+  </si>
+  <si>
+    <t>Equity Offered</t>
+  </si>
+  <si>
+    <t>VALUATION METRICS</t>
+  </si>
+  <si>
+    <t>NI Margin</t>
+  </si>
+  <si>
+    <t>Pro Forma Financials (5 Year Forecast)</t>
   </si>
 </sst>
 </file>
@@ -170,14 +209,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,24 +238,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF4A5960"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -244,8 +265,103 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,19 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2B85E7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,92 +409,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B85E7"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF2B85E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF2B85E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B85E7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF2B85E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B85E7"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B85E7"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B85E7"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCFD8DC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B85E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCFD8DC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B85E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B85E7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCFD8DC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF2B85E7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,71 +561,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -604,42 +709,127 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -678,6 +868,522 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue by Year, by Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Primary Revenue (from API Calls)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>157200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1882200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3582200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14E7-42CA-87AE-A2EE41A83E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ancillary Revenue (Lead Gen + Sales Comissions)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>48437.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>587500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1118750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-14E7-42CA-87AE-A2EE41A83E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="501750728"/>
+        <c:axId val="501750072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501750728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501750072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501750072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501750728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue, Expenses, Net Income</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -710,61 +1416,189 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Revenue</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$R$19:$T$19</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Year 1</c:v>
+                  <c:v>205637.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Year 2</c:v>
+                  <c:v>684700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Year 3</c:v>
+                  <c:v>1157200</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$20:$T$20</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>157200</c:v>
+                <c:pt idx="3">
+                  <c:v>2469700</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>522200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>862200</c:v>
+                <c:pt idx="4">
+                  <c:v>4700950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F10F-48E4-AF80-EBDBB2432EBA}"/>
+              <c16:uniqueId val="{00000000-4309-4D66-B338-6577EAE24EEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expenses</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>386250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>728000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>962000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1752000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2337000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4309-4D66-B338-6577EAE24EEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Net Income</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-180612.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-43300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>717700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2363950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4309-4D66-B338-6577EAE24EEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -776,19 +1610,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="508374072"/>
-        <c:axId val="508370136"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="573311792"/>
+        <c:axId val="573317040"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="508374072"/>
+        <c:axId val="573311792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -825,7 +1658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508370136"/>
+        <c:crossAx val="573317040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +1666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508370136"/>
+        <c:axId val="573317040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +1717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508374072"/>
+        <c:crossAx val="573311792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -896,6 +1729,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -940,6 +1804,132 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Breakdown of Expense by Type</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Breakdown of Expense by Type</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{80828DF7-6694-4949-8C26-318C1CEDAC4E}" formatIdx="0">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="treemap" hidden="1" uniqueId="{D81E31E2-05E7-4B3B-A76C-DF546D03540C}" formatIdx="1">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="treemap" hidden="1" uniqueId="{F2489152-348F-4769-8E33-D446C8E18863}" formatIdx="2">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="treemap" hidden="1" uniqueId="{D45D000C-B757-4E3A-9944-8A43619F6AD1}" formatIdx="3">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="treemap" hidden="1" uniqueId="{DEA28633-1817-4BE0-8604-768A0CE2F9C3}" formatIdx="4">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -980,8 +1970,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -992,7 +2062,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1005,7 +2075,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1022,7 +2092,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1038,7 +2108,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1082,20 +2152,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1104,13 +2174,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1122,10 +2192,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1134,16 +2204,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1247,14 +2318,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1344,20 +2409,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1370,6 +2435,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1401,7 +2477,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1410,14 +2486,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1471,6 +2546,503 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -1483,27 +3055,549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD35E33C-3054-43E9-A2C8-D498805B2B96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5249B359-6E29-4952-B0F4-15845CE1F671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,6 +3613,120 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6167B1C5-5E19-48F2-AA37-882454F05794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0683A-7E74-47B2-BA48-411CCFEC42AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4000500" y="4236720"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1821,1055 +4029,2832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F80A538-1F51-4B3D-A445-CC6C86D1A065}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19:T20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="W20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.21875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.21875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="35" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="35" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" style="35" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="E1" s="39" t="s">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="39" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="39" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="33" t="str">
+        <f>O1</f>
+        <v>Year 3</v>
+      </c>
+      <c r="T1" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="33" t="str">
+        <f>T1</f>
+        <v>Year 4</v>
+      </c>
+      <c r="Y1" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="33" t="str">
+        <f>Y1</f>
+        <v>Year 5</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="E2" s="27" t="s">
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="P2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="Q2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="R2" s="17" t="s">
         <v>3</v>
       </c>
+      <c r="S2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>30</v>
+      </c>
+      <c r="O4" s="5">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2">
         <v>40</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="R4" s="6">
+        <v>50</v>
+      </c>
+      <c r="T4" s="5">
+        <v>75</v>
+      </c>
+      <c r="U4" s="2">
+        <v>75</v>
+      </c>
+      <c r="V4" s="2">
+        <v>100</v>
+      </c>
+      <c r="W4" s="6">
+        <v>140</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>190</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>210</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>230</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="17">
-        <v>5</v>
-      </c>
-      <c r="F5" s="14">
-        <v>10</v>
-      </c>
-      <c r="G5" s="14">
-        <v>10</v>
-      </c>
-      <c r="H5" s="18">
-        <v>15</v>
-      </c>
-      <c r="I5" s="17">
-        <v>20</v>
-      </c>
-      <c r="J5" s="14">
-        <v>25</v>
-      </c>
-      <c r="K5" s="14">
-        <v>25</v>
-      </c>
-      <c r="L5" s="14">
-        <v>30</v>
-      </c>
-      <c r="M5" s="17">
-        <v>30</v>
-      </c>
-      <c r="N5" s="14">
-        <v>35</v>
-      </c>
-      <c r="O5" s="14">
-        <v>40</v>
-      </c>
-      <c r="P5" s="18">
-        <v>50</v>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="P5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="R5" s="6">
+        <v>20000</v>
+      </c>
+      <c r="T5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="U5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="W5" s="6">
+        <v>20000</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="17">
-        <v>10000</v>
-      </c>
-      <c r="F6" s="14">
-        <v>15000</v>
-      </c>
-      <c r="G6" s="14">
-        <v>15000</v>
-      </c>
-      <c r="H6" s="18">
-        <v>15000</v>
-      </c>
-      <c r="I6" s="17">
-        <v>20000</v>
-      </c>
-      <c r="J6" s="14">
-        <v>20000</v>
-      </c>
-      <c r="K6" s="14">
-        <v>20000</v>
-      </c>
-      <c r="L6" s="14">
-        <v>20000</v>
-      </c>
-      <c r="M6" s="17">
-        <v>20000</v>
-      </c>
-      <c r="N6" s="14">
-        <v>20000</v>
-      </c>
-      <c r="O6" s="14">
-        <v>20000</v>
-      </c>
-      <c r="P6" s="18">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="E7" s="19">
-        <f t="shared" ref="E7:P7" si="0">E5*E6</f>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:R6" si="0">E4*E5</f>
         <v>50000</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>225000</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I6" s="36">
+        <f>SUM(E6:H6)</f>
+        <v>575000</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="L7" s="15">
+      <c r="M6" s="3">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="M7" s="19">
+      <c r="N6" s="36">
+        <f>SUM(J6:M6)</f>
+        <v>2000000</v>
+      </c>
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="N7" s="15">
+      <c r="P6" s="3">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="O7" s="15">
+      <c r="Q6" s="3">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="P7" s="20">
+      <c r="R6" s="8">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
+      <c r="S6" s="36">
+        <f>SUM(O6:R6)</f>
+        <v>3100000</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" ref="T6:AB6" si="1">T4*T5</f>
+        <v>1500000</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="1"/>
+        <v>2800000</v>
+      </c>
+      <c r="X6" s="36">
+        <f>SUM(T6:W6)</f>
+        <v>7800000</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="1"/>
+        <v>3400000</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="1"/>
+        <v>3800000</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>4200000</v>
+      </c>
+      <c r="AB6" s="8">
+        <f t="shared" si="1"/>
+        <v>4600000</v>
+      </c>
+      <c r="AC6" s="36">
+        <f>SUM(Y6:AB6)</f>
+        <v>16000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+    <row r="7" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3</v>
+      </c>
+      <c r="R8" s="6">
+        <v>4</v>
+      </c>
+      <c r="T8" s="5">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4</v>
+      </c>
+      <c r="V8" s="2">
+        <v>4</v>
+      </c>
+      <c r="W8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="5">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="O9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="R9" s="6">
+        <v>100000</v>
+      </c>
+      <c r="T9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="U9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="V9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="W9" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" ref="E10:R10" si="2">E8*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="I10" s="36">
+        <f>SUM(E10:H10)</f>
+        <v>200000</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="N10" s="36">
+        <f>SUM(J10:M10)</f>
+        <v>600000</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="2"/>
+        <v>400000</v>
+      </c>
+      <c r="S10" s="36">
+        <f>SUM(O10:R10)</f>
+        <v>1300000</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" ref="T10:AB10" si="3">T8*T9</f>
+        <v>400000</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="W10" s="8">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="X10" s="36">
+        <f>SUM(T10:W10)</f>
+        <v>1600000</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="AC10" s="36">
+        <f>SUM(Y10:AB10)</f>
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="37"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <f>E10+E6</f>
+        <v>50000</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:I12" si="4">F10+F6</f>
+        <v>150000</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="4"/>
+        <v>325000</v>
+      </c>
+      <c r="I12" s="36">
+        <f t="shared" si="4"/>
+        <v>775000</v>
+      </c>
+      <c r="J12" s="7">
+        <f>J10+J6</f>
+        <v>500000</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:N12" si="5">K10+K6</f>
+        <v>600000</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="5"/>
+        <v>800000</v>
+      </c>
+      <c r="N12" s="36">
+        <f t="shared" si="5"/>
+        <v>2600000</v>
+      </c>
+      <c r="O12" s="7">
+        <f>O10+O6</f>
+        <v>900000</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" ref="P12:S12" si="6">P10+P6</f>
+        <v>1000000</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="6"/>
+        <v>1100000</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="6"/>
+        <v>1400000</v>
+      </c>
+      <c r="S12" s="36">
+        <f t="shared" si="6"/>
+        <v>4400000</v>
+      </c>
+      <c r="T12" s="7">
+        <f>T10+T6</f>
+        <v>1900000</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" ref="U12:X12" si="7">U10+U6</f>
+        <v>1900000</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="7"/>
+        <v>2400000</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" si="7"/>
+        <v>3200000</v>
+      </c>
+      <c r="X12" s="36">
+        <f t="shared" si="7"/>
+        <v>9400000</v>
+      </c>
+      <c r="Y12" s="7">
+        <f>Y10+Y6</f>
+        <v>3800000</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12:AC12" si="8">Z10+Z6</f>
+        <v>4300000</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="8"/>
+        <v>4700000</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="8"/>
+        <v>5100000</v>
+      </c>
+      <c r="AC12" s="36">
+        <f t="shared" si="8"/>
+        <v>17900000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="37"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="37"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13">
+        <v>10001</v>
+      </c>
+      <c r="C17" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>2</v>
-      </c>
-      <c r="L9" s="14">
-        <v>2</v>
-      </c>
-      <c r="M9" s="17">
-        <v>3</v>
-      </c>
-      <c r="N9" s="14">
-        <v>3</v>
-      </c>
-      <c r="O9" s="14">
-        <v>3</v>
-      </c>
-      <c r="P9" s="18">
-        <v>3</v>
+      <c r="D20" s="21"/>
+      <c r="E20" s="63">
+        <f>E12*0.1*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="F20" s="64">
+        <f t="shared" ref="F20:R20" si="9">F12*0.1*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="G20" s="64">
+        <f t="shared" si="9"/>
+        <v>12500</v>
+      </c>
+      <c r="H20" s="64">
+        <f t="shared" si="9"/>
+        <v>16250</v>
+      </c>
+      <c r="I20" s="65">
+        <f t="shared" ref="I20:I21" si="10">SUM(E20:H20)</f>
+        <v>38750</v>
+      </c>
+      <c r="J20" s="63">
+        <f t="shared" si="9"/>
+        <v>25000</v>
+      </c>
+      <c r="K20" s="64">
+        <f t="shared" si="9"/>
+        <v>30000</v>
+      </c>
+      <c r="L20" s="64">
+        <f t="shared" si="9"/>
+        <v>35000</v>
+      </c>
+      <c r="M20" s="64">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="N20" s="65">
+        <f t="shared" ref="N20:N21" si="11">SUM(J20:M20)</f>
+        <v>130000</v>
+      </c>
+      <c r="O20" s="63">
+        <f t="shared" si="9"/>
+        <v>45000</v>
+      </c>
+      <c r="P20" s="64">
+        <f t="shared" si="9"/>
+        <v>50000</v>
+      </c>
+      <c r="Q20" s="64">
+        <f t="shared" si="9"/>
+        <v>55000</v>
+      </c>
+      <c r="R20" s="66">
+        <f t="shared" si="9"/>
+        <v>70000</v>
+      </c>
+      <c r="S20" s="65">
+        <f t="shared" ref="S20:S21" si="12">SUM(O20:R20)</f>
+        <v>220000</v>
+      </c>
+      <c r="T20" s="63">
+        <f t="shared" ref="T20:AB20" si="13">T12*0.1*0.5</f>
+        <v>95000</v>
+      </c>
+      <c r="U20" s="64">
+        <f t="shared" si="13"/>
+        <v>95000</v>
+      </c>
+      <c r="V20" s="64">
+        <f t="shared" si="13"/>
+        <v>120000</v>
+      </c>
+      <c r="W20" s="66">
+        <f t="shared" si="13"/>
+        <v>160000</v>
+      </c>
+      <c r="X20" s="65">
+        <f t="shared" ref="X20:X21" si="14">SUM(T20:W20)</f>
+        <v>470000</v>
+      </c>
+      <c r="Y20" s="63">
+        <f t="shared" si="13"/>
+        <v>190000</v>
+      </c>
+      <c r="Z20" s="64">
+        <f t="shared" si="13"/>
+        <v>215000</v>
+      </c>
+      <c r="AA20" s="64">
+        <f t="shared" si="13"/>
+        <v>235000</v>
+      </c>
+      <c r="AB20" s="66">
+        <f t="shared" si="13"/>
+        <v>255000</v>
+      </c>
+      <c r="AC20" s="65">
+        <f t="shared" ref="AC20:AC21" si="15">SUM(Y20:AB20)</f>
+        <v>895000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="63">
+        <f>0.01*E12*25*0.05</f>
+        <v>625</v>
+      </c>
+      <c r="F21" s="64">
+        <f t="shared" ref="F21:R21" si="16">0.01*F12*25*0.05</f>
+        <v>1875</v>
+      </c>
+      <c r="G21" s="64">
+        <f t="shared" si="16"/>
+        <v>3125</v>
+      </c>
+      <c r="H21" s="64">
+        <f t="shared" si="16"/>
+        <v>4062.5</v>
+      </c>
+      <c r="I21" s="65">
+        <f t="shared" si="10"/>
+        <v>9687.5</v>
+      </c>
+      <c r="J21" s="63">
+        <f t="shared" si="16"/>
+        <v>6250</v>
+      </c>
+      <c r="K21" s="64">
+        <f t="shared" si="16"/>
+        <v>7500</v>
+      </c>
+      <c r="L21" s="64">
+        <f t="shared" si="16"/>
+        <v>8750</v>
+      </c>
+      <c r="M21" s="64">
+        <f t="shared" si="16"/>
+        <v>10000</v>
+      </c>
+      <c r="N21" s="65">
+        <f t="shared" si="11"/>
+        <v>32500</v>
+      </c>
+      <c r="O21" s="63">
+        <f t="shared" si="16"/>
+        <v>11250</v>
+      </c>
+      <c r="P21" s="64">
+        <f t="shared" si="16"/>
+        <v>12500</v>
+      </c>
+      <c r="Q21" s="64">
+        <f t="shared" si="16"/>
+        <v>13750</v>
+      </c>
+      <c r="R21" s="66">
+        <f t="shared" si="16"/>
+        <v>17500</v>
+      </c>
+      <c r="S21" s="65">
+        <f t="shared" si="12"/>
+        <v>55000</v>
+      </c>
+      <c r="T21" s="63">
+        <f t="shared" ref="T21:AB21" si="17">0.01*T12*25*0.05</f>
+        <v>23750</v>
+      </c>
+      <c r="U21" s="64">
+        <f t="shared" si="17"/>
+        <v>23750</v>
+      </c>
+      <c r="V21" s="64">
+        <f t="shared" si="17"/>
+        <v>30000</v>
+      </c>
+      <c r="W21" s="66">
+        <f t="shared" si="17"/>
+        <v>40000</v>
+      </c>
+      <c r="X21" s="65">
+        <f t="shared" si="14"/>
+        <v>117500</v>
+      </c>
+      <c r="Y21" s="63">
+        <f t="shared" si="17"/>
+        <v>47500</v>
+      </c>
+      <c r="Z21" s="64">
+        <f t="shared" si="17"/>
+        <v>53750</v>
+      </c>
+      <c r="AA21" s="64">
+        <f t="shared" si="17"/>
+        <v>58750</v>
+      </c>
+      <c r="AB21" s="66">
+        <f t="shared" si="17"/>
+        <v>63750</v>
+      </c>
+      <c r="AC21" s="65">
+        <f t="shared" si="15"/>
+        <v>223750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="63">
+        <f>(1000*$D$15)+(9000*$D$16)+(E12-10000)*$D$17</f>
+        <v>10550</v>
+      </c>
+      <c r="F22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(F12-10000)*$D$17</f>
+        <v>30550</v>
+      </c>
+      <c r="G22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(G12-10000)*$D$17</f>
+        <v>50550</v>
+      </c>
+      <c r="H22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(H12-10000)*$D$17</f>
+        <v>65550</v>
+      </c>
+      <c r="I22" s="65">
+        <f t="shared" ref="I22:I23" si="18">SUM(E22:H22)</f>
+        <v>157200</v>
+      </c>
+      <c r="J22" s="63">
+        <f>(1000*$D$15)+(9000*$D$16)+(J12-10000)*$D$17</f>
+        <v>100550</v>
+      </c>
+      <c r="K22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(K12-10000)*$D$17</f>
+        <v>120550</v>
+      </c>
+      <c r="L22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(L12-10000)*$D$17</f>
+        <v>140550</v>
+      </c>
+      <c r="M22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(M12-10000)*$D$17</f>
+        <v>160550</v>
+      </c>
+      <c r="N22" s="65">
+        <f t="shared" ref="N22:N23" si="19">SUM(J22:M22)</f>
+        <v>522200</v>
+      </c>
+      <c r="O22" s="63">
+        <f>(1000*$D$15)+(9000*$D$16)+(O12-10000)*$D$17</f>
+        <v>180550</v>
+      </c>
+      <c r="P22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(P12-10000)*$D$17</f>
+        <v>200550</v>
+      </c>
+      <c r="Q22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(Q12-10000)*$D$17</f>
+        <v>220550</v>
+      </c>
+      <c r="R22" s="66">
+        <f>(1000*$D$15)+(9000*$D$16)+(R12-10000)*$D$17</f>
+        <v>280550</v>
+      </c>
+      <c r="S22" s="65">
+        <f t="shared" ref="S22:S23" si="20">SUM(O22:R22)</f>
+        <v>882200</v>
+      </c>
+      <c r="T22" s="63">
+        <f>(1000*$D$15)+(9000*$D$16)+(T12-10000)*$D$17</f>
+        <v>380550</v>
+      </c>
+      <c r="U22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(U12-10000)*$D$17</f>
+        <v>380550</v>
+      </c>
+      <c r="V22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(V12-10000)*$D$17</f>
+        <v>480550</v>
+      </c>
+      <c r="W22" s="66">
+        <f>(1000*$D$15)+(9000*$D$16)+(W12-10000)*$D$17</f>
+        <v>640550</v>
+      </c>
+      <c r="X22" s="65">
+        <f t="shared" ref="X22:X23" si="21">SUM(T22:W22)</f>
+        <v>1882200</v>
+      </c>
+      <c r="Y22" s="63">
+        <f>(1000*$D$15)+(9000*$D$16)+(Y12-10000)*$D$17</f>
+        <v>760550</v>
+      </c>
+      <c r="Z22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(Z12-10000)*$D$17</f>
+        <v>860550</v>
+      </c>
+      <c r="AA22" s="64">
+        <f>(1000*$D$15)+(9000*$D$16)+(AA12-10000)*$D$17</f>
+        <v>940550</v>
+      </c>
+      <c r="AB22" s="66">
+        <f>(1000*$D$15)+(9000*$D$16)+(AB12-10000)*$D$17</f>
+        <v>1020550</v>
+      </c>
+      <c r="AC22" s="65">
+        <f t="shared" ref="AC22:AC23" si="22">SUM(Y22:AB22)</f>
+        <v>3582200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="63">
+        <f>E20+E21</f>
+        <v>3125</v>
+      </c>
+      <c r="F23" s="64">
+        <f>F20+F21</f>
+        <v>9375</v>
+      </c>
+      <c r="G23" s="64">
+        <f>G20+G21</f>
+        <v>15625</v>
+      </c>
+      <c r="H23" s="64">
+        <f>H20+H21</f>
+        <v>20312.5</v>
+      </c>
+      <c r="I23" s="65">
+        <f t="shared" si="18"/>
+        <v>48437.5</v>
+      </c>
+      <c r="J23" s="63">
+        <f>J20+J21</f>
+        <v>31250</v>
+      </c>
+      <c r="K23" s="64">
+        <f>K20+K21</f>
+        <v>37500</v>
+      </c>
+      <c r="L23" s="64">
+        <f>L20+L21</f>
+        <v>43750</v>
+      </c>
+      <c r="M23" s="64">
+        <f>M20+M21</f>
+        <v>50000</v>
+      </c>
+      <c r="N23" s="65">
+        <f t="shared" si="19"/>
+        <v>162500</v>
+      </c>
+      <c r="O23" s="63">
+        <f>O20+O21</f>
+        <v>56250</v>
+      </c>
+      <c r="P23" s="64">
+        <f>P20+P21</f>
+        <v>62500</v>
+      </c>
+      <c r="Q23" s="64">
+        <f>Q20+Q21</f>
+        <v>68750</v>
+      </c>
+      <c r="R23" s="66">
+        <f>R20+R21</f>
+        <v>87500</v>
+      </c>
+      <c r="S23" s="65">
+        <f t="shared" si="20"/>
+        <v>275000</v>
+      </c>
+      <c r="T23" s="63">
+        <f>T20+T21</f>
+        <v>118750</v>
+      </c>
+      <c r="U23" s="64">
+        <f>U20+U21</f>
+        <v>118750</v>
+      </c>
+      <c r="V23" s="64">
+        <f>V20+V21</f>
+        <v>150000</v>
+      </c>
+      <c r="W23" s="66">
+        <f>W20+W21</f>
+        <v>200000</v>
+      </c>
+      <c r="X23" s="65">
+        <f t="shared" si="21"/>
+        <v>587500</v>
+      </c>
+      <c r="Y23" s="63">
+        <f>Y20+Y21</f>
+        <v>237500</v>
+      </c>
+      <c r="Z23" s="64">
+        <f>Z20+Z21</f>
+        <v>268750</v>
+      </c>
+      <c r="AA23" s="64">
+        <f>AA20+AA21</f>
+        <v>293750</v>
+      </c>
+      <c r="AB23" s="66">
+        <f>AB20+AB21</f>
+        <v>318750</v>
+      </c>
+      <c r="AC23" s="65">
+        <f t="shared" si="22"/>
+        <v>1118750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="7">
+        <f>E22+E23</f>
+        <v>13675</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ref="F24:R24" si="23">F22+F23</f>
+        <v>39925</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="23"/>
+        <v>66175</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="23"/>
+        <v>85862.5</v>
+      </c>
+      <c r="I24" s="36">
+        <f t="shared" si="23"/>
+        <v>205637.5</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="23"/>
+        <v>131800</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="23"/>
+        <v>158050</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="23"/>
+        <v>184300</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="23"/>
+        <v>210550</v>
+      </c>
+      <c r="N24" s="36">
+        <f t="shared" ref="N24" si="24">N22+N23</f>
+        <v>684700</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="23"/>
+        <v>236800</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="23"/>
+        <v>263050</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="23"/>
+        <v>289300</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" si="23"/>
+        <v>368050</v>
+      </c>
+      <c r="S24" s="36">
+        <f t="shared" ref="S24" si="25">S22+S23</f>
+        <v>1157200</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" ref="T24:AC24" si="26">T22+T23</f>
+        <v>499300</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="26"/>
+        <v>499300</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="26"/>
+        <v>630550</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" si="26"/>
+        <v>840550</v>
+      </c>
+      <c r="X24" s="36">
+        <f t="shared" si="26"/>
+        <v>2469700</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="26"/>
+        <v>998050</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="26"/>
+        <v>1129300</v>
+      </c>
+      <c r="AA24" s="3">
+        <f t="shared" si="26"/>
+        <v>1234300</v>
+      </c>
+      <c r="AB24" s="8">
+        <f t="shared" si="26"/>
+        <v>1339300</v>
+      </c>
+      <c r="AC24" s="36">
+        <f t="shared" si="26"/>
+        <v>4700950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="37"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5">
+        <f>E12*30</f>
+        <v>1500000</v>
+      </c>
+      <c r="F28" s="2">
+        <f>F12*30</f>
+        <v>4500000</v>
+      </c>
+      <c r="G28" s="2">
+        <f>G12*30</f>
+        <v>7500000</v>
+      </c>
+      <c r="H28" s="2">
+        <f>H12*30</f>
+        <v>9750000</v>
+      </c>
+      <c r="I28" s="35">
+        <f t="shared" ref="I28:I29" si="27">SUM(E28:H28)</f>
+        <v>23250000</v>
+      </c>
+      <c r="J28" s="5">
+        <f>J12*30</f>
+        <v>15000000</v>
+      </c>
+      <c r="K28" s="2">
+        <f>K12*30</f>
+        <v>18000000</v>
+      </c>
+      <c r="L28" s="2">
+        <f>L12*30</f>
+        <v>21000000</v>
+      </c>
+      <c r="M28" s="2">
+        <f>M12*30</f>
+        <v>24000000</v>
+      </c>
+      <c r="N28" s="35">
+        <f t="shared" ref="N28:N29" si="28">SUM(J28:M28)</f>
+        <v>78000000</v>
+      </c>
+      <c r="O28" s="5">
+        <f>O12*30</f>
+        <v>27000000</v>
+      </c>
+      <c r="P28" s="2">
+        <f>P12*30</f>
+        <v>30000000</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>Q12*30</f>
+        <v>33000000</v>
+      </c>
+      <c r="R28" s="6">
+        <f>R12*30</f>
+        <v>42000000</v>
+      </c>
+      <c r="S28" s="35">
+        <f t="shared" ref="S28:S29" si="29">SUM(O28:R28)</f>
+        <v>132000000</v>
+      </c>
+      <c r="T28" s="5">
+        <f>T12*30</f>
+        <v>57000000</v>
+      </c>
+      <c r="U28" s="2">
+        <f>U12*30</f>
+        <v>57000000</v>
+      </c>
+      <c r="V28" s="2">
+        <f>V12*30</f>
+        <v>72000000</v>
+      </c>
+      <c r="W28" s="6">
+        <f>W12*30</f>
+        <v>96000000</v>
+      </c>
+      <c r="X28" s="35">
+        <f t="shared" ref="X28:X29" si="30">SUM(T28:W28)</f>
+        <v>282000000</v>
+      </c>
+      <c r="Y28" s="5">
+        <f>Y12*30</f>
+        <v>114000000</v>
+      </c>
+      <c r="Z28" s="2">
+        <f>Z12*30</f>
+        <v>129000000</v>
+      </c>
+      <c r="AA28" s="2">
+        <f>AA12*30</f>
+        <v>141000000</v>
+      </c>
+      <c r="AB28" s="6">
+        <f>AB12*30</f>
+        <v>153000000</v>
+      </c>
+      <c r="AC28" s="35">
+        <f t="shared" ref="AC28:AC29" si="31">SUM(Y28:AB28)</f>
+        <v>537000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="5">
+        <f>IF(E28&lt;=5000000,(E28/1000)*1.5,(5000000/1000*1.5)+(E28-5000000)/1000*1)</f>
+        <v>2250</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ref="F29:R29" si="32">IF(F28&lt;=5000000,(F28/1000)*1.5,(5000000/1000*1.5)+(F28-5000000)/1000*1)</f>
+        <v>6750</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="32"/>
+        <v>10000</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="32"/>
+        <v>12250</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="27"/>
+        <v>31250</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="32"/>
+        <v>17500</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="32"/>
+        <v>20500</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="32"/>
+        <v>23500</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="32"/>
+        <v>26500</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="28"/>
+        <v>88000</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="32"/>
+        <v>29500</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="32"/>
+        <v>32500</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="32"/>
+        <v>35500</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="32"/>
+        <v>44500</v>
+      </c>
+      <c r="S29" s="35">
+        <f t="shared" si="29"/>
+        <v>142000</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" ref="T29:AB29" si="33">IF(T28&lt;=5000000,(T28/1000)*1.5,(5000000/1000*1.5)+(T28-5000000)/1000*1)</f>
+        <v>59500</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="33"/>
+        <v>59500</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="33"/>
+        <v>74500</v>
+      </c>
+      <c r="W29" s="6">
+        <f t="shared" si="33"/>
+        <v>98500</v>
+      </c>
+      <c r="X29" s="35">
+        <f t="shared" si="30"/>
+        <v>292000</v>
+      </c>
+      <c r="Y29" s="5">
+        <f t="shared" si="33"/>
+        <v>116500</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="33"/>
+        <v>131500</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="33"/>
+        <v>143500</v>
+      </c>
+      <c r="AB29" s="6">
+        <f t="shared" si="33"/>
+        <v>155500</v>
+      </c>
+      <c r="AC29" s="35">
+        <f t="shared" si="31"/>
+        <v>547000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I32" s="35">
+        <f t="shared" ref="I32:I35" si="34">SUM(E32:H32)</f>
+        <v>95000</v>
+      </c>
+      <c r="J32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K32" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L32" s="2">
+        <v>50000</v>
+      </c>
+      <c r="M32" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N32" s="35">
+        <f t="shared" ref="N32:N35" si="35">SUM(J32:M32)</f>
+        <v>180000</v>
+      </c>
+      <c r="O32" s="5">
+        <v>50000</v>
+      </c>
+      <c r="P32" s="2">
+        <v>50000</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>60000</v>
+      </c>
+      <c r="R32" s="6">
+        <v>80000</v>
+      </c>
+      <c r="S32" s="35">
+        <f t="shared" ref="S32:S35" si="36">SUM(O32:R32)</f>
+        <v>240000</v>
+      </c>
+      <c r="T32" s="5">
+        <v>120000</v>
+      </c>
+      <c r="U32" s="2">
+        <f>T32</f>
+        <v>120000</v>
+      </c>
+      <c r="V32" s="2">
+        <f>U32</f>
+        <v>120000</v>
+      </c>
+      <c r="W32" s="6">
+        <f>V32</f>
+        <v>120000</v>
+      </c>
+      <c r="X32" s="35">
+        <f t="shared" ref="X32:X35" si="37">SUM(T32:W32)</f>
+        <v>480000</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>150000</v>
+      </c>
+      <c r="Z32" s="2">
+        <f>Y32</f>
+        <v>150000</v>
+      </c>
+      <c r="AA32" s="2">
+        <f>Z32</f>
+        <v>150000</v>
+      </c>
+      <c r="AB32" s="6">
+        <f>AA32</f>
+        <v>150000</v>
+      </c>
+      <c r="AC32" s="35">
+        <f t="shared" ref="AC32:AC35" si="38">SUM(Y32:AB32)</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>30000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I33" s="35">
+        <f t="shared" si="34"/>
+        <v>120000</v>
+      </c>
+      <c r="J33" s="5">
+        <v>60000</v>
+      </c>
+      <c r="K33" s="2">
+        <v>60000</v>
+      </c>
+      <c r="L33" s="2">
+        <v>60000</v>
+      </c>
+      <c r="M33" s="2">
+        <v>60000</v>
+      </c>
+      <c r="N33" s="35">
+        <f t="shared" si="35"/>
+        <v>240000</v>
+      </c>
+      <c r="O33" s="5">
+        <v>60000</v>
+      </c>
+      <c r="P33" s="2">
+        <v>60000</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>60000</v>
+      </c>
+      <c r="R33" s="6">
+        <v>80000</v>
+      </c>
+      <c r="S33" s="35">
+        <f t="shared" si="36"/>
+        <v>260000</v>
+      </c>
+      <c r="T33" s="5">
+        <v>80000</v>
+      </c>
+      <c r="U33" s="2">
+        <v>80000</v>
+      </c>
+      <c r="V33" s="2">
+        <v>100000</v>
+      </c>
+      <c r="W33" s="6">
+        <v>100000</v>
+      </c>
+      <c r="X33" s="35">
+        <f t="shared" si="37"/>
+        <v>360000</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>100000</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>100000</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>100000</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>100000</v>
+      </c>
+      <c r="AC33" s="35">
+        <f t="shared" si="38"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F34" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I34" s="35">
+        <f t="shared" si="34"/>
+        <v>100000</v>
+      </c>
+      <c r="J34" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L34" s="2">
+        <v>40000</v>
+      </c>
+      <c r="M34" s="2">
+        <v>40000</v>
+      </c>
+      <c r="N34" s="35">
+        <f t="shared" si="35"/>
+        <v>160000</v>
+      </c>
+      <c r="O34" s="5">
+        <v>60000</v>
+      </c>
+      <c r="P34" s="2">
+        <v>60000</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>60000</v>
+      </c>
+      <c r="R34" s="6">
+        <v>60000</v>
+      </c>
+      <c r="S34" s="35">
+        <f t="shared" si="36"/>
+        <v>240000</v>
+      </c>
+      <c r="T34" s="5">
+        <v>80000</v>
+      </c>
+      <c r="U34" s="2">
+        <v>100000</v>
+      </c>
+      <c r="V34" s="2">
+        <v>140000</v>
+      </c>
+      <c r="W34" s="6">
+        <v>140000</v>
+      </c>
+      <c r="X34" s="35">
+        <f t="shared" si="37"/>
+        <v>460000</v>
+      </c>
+      <c r="Y34" s="5">
+        <f>W34</f>
+        <v>140000</v>
+      </c>
+      <c r="Z34" s="2">
+        <f>Y34</f>
+        <v>140000</v>
+      </c>
+      <c r="AA34" s="2">
+        <f>Z34</f>
+        <v>140000</v>
+      </c>
+      <c r="AB34" s="6">
+        <f>AA34</f>
+        <v>140000</v>
+      </c>
+      <c r="AC34" s="35">
+        <f t="shared" si="38"/>
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="35">
+        <f t="shared" si="34"/>
+        <v>40000</v>
+      </c>
+      <c r="J35" s="5">
+        <v>15000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>15000</v>
+      </c>
+      <c r="L35" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M35" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N35" s="35">
+        <f t="shared" si="35"/>
+        <v>60000</v>
+      </c>
+      <c r="O35" s="5">
+        <v>20000</v>
+      </c>
+      <c r="P35" s="2">
+        <v>20000</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>20000</v>
+      </c>
+      <c r="R35" s="6">
+        <v>20000</v>
+      </c>
+      <c r="S35" s="35">
+        <f t="shared" si="36"/>
+        <v>80000</v>
+      </c>
+      <c r="T35" s="5">
+        <v>40000</v>
+      </c>
+      <c r="U35" s="2">
+        <v>40000</v>
+      </c>
+      <c r="V35" s="2">
+        <v>40000</v>
+      </c>
+      <c r="W35" s="6">
+        <v>40000</v>
+      </c>
+      <c r="X35" s="35">
+        <f t="shared" si="37"/>
+        <v>160000</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>50000</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>55000</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>60000</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>65000</v>
+      </c>
+      <c r="AC35" s="35">
+        <f t="shared" si="38"/>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" ref="E37:S37" si="39">SUM(E29:E36)</f>
+        <v>72250</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="39"/>
+        <v>81750</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="39"/>
+        <v>110000</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="39"/>
+        <v>122250</v>
+      </c>
+      <c r="I37" s="37">
+        <f t="shared" si="39"/>
+        <v>386250</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="39"/>
+        <v>172500</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="39"/>
+        <v>175500</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="39"/>
+        <v>188500</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="39"/>
+        <v>191500</v>
+      </c>
+      <c r="N37" s="37">
+        <f t="shared" si="39"/>
+        <v>728000</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="39"/>
+        <v>219500</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="39"/>
+        <v>222500</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="39"/>
+        <v>235500</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" si="39"/>
+        <v>284500</v>
+      </c>
+      <c r="S37" s="37">
+        <f t="shared" si="39"/>
+        <v>962000</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" ref="T37" si="40">SUM(T29:T36)</f>
+        <v>379500</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" ref="U37" si="41">SUM(U29:U36)</f>
+        <v>399500</v>
+      </c>
+      <c r="V37" s="4">
+        <f t="shared" ref="V37" si="42">SUM(V29:V36)</f>
+        <v>474500</v>
+      </c>
+      <c r="W37" s="10">
+        <f t="shared" ref="W37:X37" si="43">SUM(W29:W36)</f>
+        <v>498500</v>
+      </c>
+      <c r="X37" s="37">
+        <f t="shared" si="43"/>
+        <v>1752000</v>
+      </c>
+      <c r="Y37" s="9">
+        <f t="shared" ref="Y37" si="44">SUM(Y29:Y36)</f>
+        <v>556500</v>
+      </c>
+      <c r="Z37" s="4">
+        <f t="shared" ref="Z37" si="45">SUM(Z29:Z36)</f>
+        <v>576500</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" ref="AA37" si="46">SUM(AA29:AA36)</f>
+        <v>593500</v>
+      </c>
+      <c r="AB37" s="10">
+        <f t="shared" ref="AB37:AC37" si="47">SUM(AB29:AB36)</f>
+        <v>610500</v>
+      </c>
+      <c r="AC37" s="37">
+        <f t="shared" si="47"/>
+        <v>2337000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>100000</v>
-      </c>
-      <c r="H10" s="18">
-        <v>100000</v>
-      </c>
-      <c r="I10" s="17">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="13">
-        <v>100000</v>
-      </c>
-      <c r="K10" s="13">
-        <v>100000</v>
-      </c>
-      <c r="L10" s="14">
-        <v>100000</v>
-      </c>
-      <c r="M10" s="17">
-        <v>100000</v>
-      </c>
-      <c r="N10" s="13">
-        <v>100000</v>
-      </c>
-      <c r="O10" s="13">
-        <v>100000</v>
-      </c>
-      <c r="P10" s="18">
-        <v>100000</v>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25">
+        <f>E24-E37</f>
+        <v>-58575</v>
+      </c>
+      <c r="F39" s="24">
+        <f t="shared" ref="F39:R39" si="48">F24-F37</f>
+        <v>-41825</v>
+      </c>
+      <c r="G39" s="24">
+        <f t="shared" si="48"/>
+        <v>-43825</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="48"/>
+        <v>-36387.5</v>
+      </c>
+      <c r="I39" s="38">
+        <f t="shared" si="48"/>
+        <v>-180612.5</v>
+      </c>
+      <c r="J39" s="25">
+        <f t="shared" si="48"/>
+        <v>-40700</v>
+      </c>
+      <c r="K39" s="24">
+        <f t="shared" si="48"/>
+        <v>-17450</v>
+      </c>
+      <c r="L39" s="24">
+        <f t="shared" si="48"/>
+        <v>-4200</v>
+      </c>
+      <c r="M39" s="24">
+        <f t="shared" si="48"/>
+        <v>19050</v>
+      </c>
+      <c r="N39" s="38">
+        <f t="shared" ref="N39" si="49">N24-N37</f>
+        <v>-43300</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" si="48"/>
+        <v>17300</v>
+      </c>
+      <c r="P39" s="24">
+        <f t="shared" si="48"/>
+        <v>40550</v>
+      </c>
+      <c r="Q39" s="24">
+        <f t="shared" si="48"/>
+        <v>53800</v>
+      </c>
+      <c r="R39" s="26">
+        <f t="shared" si="48"/>
+        <v>83550</v>
+      </c>
+      <c r="S39" s="38">
+        <f t="shared" ref="S39" si="50">S24-S37</f>
+        <v>195200</v>
+      </c>
+      <c r="T39" s="25">
+        <f t="shared" ref="T39:AC39" si="51">T24-T37</f>
+        <v>119800</v>
+      </c>
+      <c r="U39" s="24">
+        <f t="shared" si="51"/>
+        <v>99800</v>
+      </c>
+      <c r="V39" s="24">
+        <f t="shared" si="51"/>
+        <v>156050</v>
+      </c>
+      <c r="W39" s="26">
+        <f t="shared" si="51"/>
+        <v>342050</v>
+      </c>
+      <c r="X39" s="38">
+        <f t="shared" si="51"/>
+        <v>717700</v>
+      </c>
+      <c r="Y39" s="25">
+        <f t="shared" si="51"/>
+        <v>441550</v>
+      </c>
+      <c r="Z39" s="24">
+        <f t="shared" si="51"/>
+        <v>552800</v>
+      </c>
+      <c r="AA39" s="24">
+        <f t="shared" si="51"/>
+        <v>640800</v>
+      </c>
+      <c r="AB39" s="26">
+        <f t="shared" si="51"/>
+        <v>728800</v>
+      </c>
+      <c r="AC39" s="38">
+        <f t="shared" si="51"/>
+        <v>2363950</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19">
-        <f t="shared" ref="E11:P11" si="1">E9*E10</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="I11" s="19">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="M11" s="19">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="1"/>
-        <v>300000</v>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E40" s="27">
+        <f>E39/E24</f>
+        <v>-4.283363802559415</v>
+      </c>
+      <c r="F40" s="28">
+        <f t="shared" ref="F40:R40" si="52">F39/F24</f>
+        <v>-1.047589229805886</v>
+      </c>
+      <c r="G40" s="28">
+        <f t="shared" si="52"/>
+        <v>-0.66225916131469587</v>
+      </c>
+      <c r="H40" s="28">
+        <f t="shared" si="52"/>
+        <v>-0.42378803319260444</v>
+      </c>
+      <c r="I40" s="39">
+        <f t="shared" si="52"/>
+        <v>-0.87830527019634064</v>
+      </c>
+      <c r="J40" s="27">
+        <f t="shared" si="52"/>
+        <v>-0.30880121396054627</v>
+      </c>
+      <c r="K40" s="28">
+        <f t="shared" si="52"/>
+        <v>-0.1104080987029421</v>
+      </c>
+      <c r="L40" s="28">
+        <f t="shared" si="52"/>
+        <v>-2.278893109061313E-2</v>
+      </c>
+      <c r="M40" s="28">
+        <f t="shared" si="52"/>
+        <v>9.0477321301353594E-2</v>
+      </c>
+      <c r="N40" s="39">
+        <f t="shared" ref="N40" si="53">N39/N24</f>
+        <v>-6.3239374908719143E-2</v>
+      </c>
+      <c r="O40" s="27">
+        <f t="shared" si="52"/>
+        <v>7.3057432432432429E-2</v>
+      </c>
+      <c r="P40" s="28">
+        <f t="shared" si="52"/>
+        <v>0.15415320281315339</v>
+      </c>
+      <c r="Q40" s="28">
+        <f t="shared" si="52"/>
+        <v>0.18596612512962324</v>
+      </c>
+      <c r="R40" s="29">
+        <f t="shared" si="52"/>
+        <v>0.22700720010868089</v>
+      </c>
+      <c r="S40" s="39">
+        <f t="shared" ref="S40" si="54">S39/S24</f>
+        <v>0.16868302799861734</v>
+      </c>
+      <c r="T40" s="27">
+        <f t="shared" ref="T40:AC40" si="55">T39/T24</f>
+        <v>0.23993591027438413</v>
+      </c>
+      <c r="U40" s="28">
+        <f t="shared" si="55"/>
+        <v>0.19987983176447024</v>
+      </c>
+      <c r="V40" s="28">
+        <f t="shared" si="55"/>
+        <v>0.24748235667274601</v>
+      </c>
+      <c r="W40" s="29">
+        <f t="shared" si="55"/>
+        <v>0.40693593480459223</v>
+      </c>
+      <c r="X40" s="39">
+        <f t="shared" si="55"/>
+        <v>0.29060209742073934</v>
+      </c>
+      <c r="Y40" s="27">
+        <f t="shared" si="55"/>
+        <v>0.44241270477430988</v>
+      </c>
+      <c r="Z40" s="28">
+        <f t="shared" si="55"/>
+        <v>0.48950677410785443</v>
+      </c>
+      <c r="AA40" s="28">
+        <f t="shared" si="55"/>
+        <v>0.51916065786275623</v>
+      </c>
+      <c r="AB40" s="29">
+        <f t="shared" si="55"/>
+        <v>0.54416486224146943</v>
+      </c>
+      <c r="AC40" s="39">
+        <f t="shared" si="55"/>
+        <v>0.50286644188940532</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="21"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="19">
-        <f>E11+E7</f>
-        <v>50000</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" ref="F13:H13" si="2">F11+F7</f>
-        <v>150000</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="2"/>
-        <v>250000</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" si="2"/>
-        <v>325000</v>
-      </c>
-      <c r="I13" s="19">
-        <f>I11+I7</f>
-        <v>500000</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" ref="J13:L13" si="3">J11+J7</f>
-        <v>600000</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="3"/>
-        <v>800000</v>
-      </c>
-      <c r="M13" s="19">
-        <f>M11+M7</f>
-        <v>900000</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" ref="N13:P13" si="4">N11+N7</f>
-        <v>1000000</v>
-      </c>
-      <c r="O13" s="15">
-        <f t="shared" si="4"/>
-        <v>1100000</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="4"/>
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="21"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0</v>
-      </c>
-      <c r="C16" s="25">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="33">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="25">
-        <v>1001</v>
-      </c>
-      <c r="C17" s="25">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="25">
-        <v>10001</v>
-      </c>
-      <c r="C18" s="25">
-        <v>100000</v>
-      </c>
-      <c r="D18" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="T19" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="21">
-        <f t="shared" ref="E20:P20" si="5">(1000*$D$16)+(9000*$D$17)+(E13-10000)*$D$18</f>
-        <v>10550</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="5"/>
-        <v>30550</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="5"/>
-        <v>50550</v>
-      </c>
-      <c r="H20" s="22">
-        <f t="shared" si="5"/>
-        <v>65550</v>
-      </c>
-      <c r="I20" s="21">
-        <f t="shared" si="5"/>
-        <v>100550</v>
-      </c>
-      <c r="J20" s="16">
-        <f t="shared" si="5"/>
-        <v>120550</v>
-      </c>
-      <c r="K20" s="16">
-        <f t="shared" si="5"/>
-        <v>140550</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="5"/>
-        <v>160550</v>
-      </c>
-      <c r="M20" s="21">
-        <f t="shared" si="5"/>
-        <v>180550</v>
-      </c>
-      <c r="N20" s="16">
-        <f t="shared" si="5"/>
-        <v>200550</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="5"/>
-        <v>220550</v>
-      </c>
-      <c r="P20" s="22">
-        <f t="shared" si="5"/>
-        <v>260550</v>
-      </c>
-      <c r="R20" s="46">
-        <f>SUM(E20:H20)</f>
-        <v>157200</v>
-      </c>
-      <c r="S20" s="46">
-        <f>SUM(I20:L20)</f>
-        <v>522200</v>
-      </c>
-      <c r="T20" s="46">
-        <f>SUM(M20:P20)</f>
-        <v>862200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="17">
-        <f>E13*30</f>
-        <v>1500000</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" ref="F23:P23" si="6">F13*30</f>
-        <v>4500000</v>
-      </c>
-      <c r="G23" s="14">
-        <f t="shared" si="6"/>
-        <v>7500000</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="6"/>
-        <v>9750000</v>
-      </c>
-      <c r="I23" s="17">
-        <f t="shared" si="6"/>
-        <v>15000000</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="6"/>
-        <v>18000000</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="6"/>
-        <v>21000000</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" si="6"/>
-        <v>24000000</v>
-      </c>
-      <c r="M23" s="17">
-        <f t="shared" si="6"/>
-        <v>27000000</v>
-      </c>
-      <c r="N23" s="14">
-        <f t="shared" si="6"/>
-        <v>30000000</v>
-      </c>
-      <c r="O23" s="14">
-        <f t="shared" si="6"/>
-        <v>33000000</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" si="6"/>
-        <v>39000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="17">
-        <f>IF(E23&lt;=5000000,(E23/1000)*1.5,(5000000/1000*1.5)+(E23-5000000)/1000*1)</f>
-        <v>2250</v>
-      </c>
-      <c r="F24" s="14">
-        <f t="shared" ref="F24:P24" si="7">IF(F23&lt;=5000000,(F23/1000)*1.5,(5000000/1000*1.5)+(F23-5000000)/1000*1)</f>
-        <v>6750</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" si="7"/>
-        <v>10000</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" si="7"/>
-        <v>12250</v>
-      </c>
-      <c r="I24" s="17">
-        <f t="shared" si="7"/>
-        <v>17500</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="7"/>
-        <v>20500</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="7"/>
-        <v>23500</v>
-      </c>
-      <c r="L24" s="14">
-        <f t="shared" si="7"/>
-        <v>26500</v>
-      </c>
-      <c r="M24" s="17">
-        <f t="shared" si="7"/>
-        <v>29500</v>
-      </c>
-      <c r="N24" s="14">
-        <f t="shared" si="7"/>
-        <v>32500</v>
-      </c>
-      <c r="O24" s="14">
-        <f t="shared" si="7"/>
-        <v>35500</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="7"/>
-        <v>41500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="17">
-        <v>10000</v>
-      </c>
-      <c r="F26" s="14">
-        <v>15000</v>
-      </c>
-      <c r="G26" s="14">
-        <v>30000</v>
-      </c>
-      <c r="H26" s="18">
-        <v>40000</v>
-      </c>
-      <c r="I26" s="17">
-        <v>40000</v>
-      </c>
-      <c r="J26" s="14">
-        <v>40000</v>
-      </c>
-      <c r="K26" s="14">
-        <v>50000</v>
-      </c>
-      <c r="L26" s="14">
-        <v>50000</v>
-      </c>
-      <c r="M26" s="17">
-        <v>50000</v>
-      </c>
-      <c r="N26" s="14">
-        <v>50000</v>
-      </c>
-      <c r="O26" s="14">
-        <v>60000</v>
-      </c>
-      <c r="P26" s="18">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="17">
-        <v>6000</v>
-      </c>
-      <c r="F27" s="14">
-        <v>6000</v>
-      </c>
-      <c r="G27" s="14">
-        <v>12000</v>
-      </c>
-      <c r="H27" s="18">
-        <v>12000</v>
-      </c>
-      <c r="I27" s="17">
-        <v>25000</v>
-      </c>
-      <c r="J27" s="14">
-        <v>25000</v>
-      </c>
-      <c r="K27" s="14">
-        <v>25000</v>
-      </c>
-      <c r="L27" s="14">
-        <v>25000</v>
-      </c>
-      <c r="M27" s="17">
-        <v>25000</v>
-      </c>
-      <c r="N27" s="14">
-        <v>25000</v>
-      </c>
-      <c r="O27" s="14">
-        <v>25000</v>
-      </c>
-      <c r="P27" s="18">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="17">
-        <v>6000</v>
-      </c>
-      <c r="F28" s="14">
-        <v>6000</v>
-      </c>
-      <c r="G28" s="14">
-        <v>7500</v>
-      </c>
-      <c r="H28" s="18">
-        <v>7500</v>
-      </c>
-      <c r="I28" s="17">
-        <v>9000</v>
-      </c>
-      <c r="J28" s="14">
-        <v>9000</v>
-      </c>
-      <c r="K28" s="14">
-        <v>9000</v>
-      </c>
-      <c r="L28" s="14">
-        <v>9000</v>
-      </c>
-      <c r="M28" s="17">
-        <v>12000</v>
-      </c>
-      <c r="N28" s="14">
-        <v>12000</v>
-      </c>
-      <c r="O28" s="14">
-        <v>12000</v>
-      </c>
-      <c r="P28" s="18">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="21">
-        <f>SUM(E24:E29)</f>
-        <v>24250</v>
-      </c>
-      <c r="F30" s="16">
-        <f t="shared" ref="F30:P30" si="8">SUM(F24:F29)</f>
-        <v>33750</v>
-      </c>
-      <c r="G30" s="16">
-        <f t="shared" si="8"/>
-        <v>59500</v>
-      </c>
-      <c r="H30" s="22">
-        <f t="shared" si="8"/>
-        <v>71750</v>
-      </c>
-      <c r="I30" s="21">
-        <f t="shared" si="8"/>
-        <v>91500</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="8"/>
-        <v>94500</v>
-      </c>
-      <c r="K30" s="16">
-        <f t="shared" si="8"/>
-        <v>107500</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="8"/>
-        <v>110500</v>
-      </c>
-      <c r="M30" s="21">
-        <f t="shared" si="8"/>
-        <v>116500</v>
-      </c>
-      <c r="N30" s="16">
-        <f t="shared" si="8"/>
-        <v>119500</v>
-      </c>
-      <c r="O30" s="16">
-        <f t="shared" si="8"/>
-        <v>132500</v>
-      </c>
-      <c r="P30" s="22">
-        <f t="shared" si="8"/>
-        <v>138500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37">
-        <f>E20-E30</f>
-        <v>-13700</v>
-      </c>
-      <c r="F32" s="36">
-        <f t="shared" ref="F32:P32" si="9">F20-F30</f>
-        <v>-3200</v>
-      </c>
-      <c r="G32" s="36">
-        <f t="shared" si="9"/>
-        <v>-8950</v>
-      </c>
-      <c r="H32" s="38">
-        <f t="shared" si="9"/>
-        <v>-6200</v>
-      </c>
-      <c r="I32" s="37">
-        <f t="shared" si="9"/>
-        <v>9050</v>
-      </c>
-      <c r="J32" s="36">
-        <f t="shared" si="9"/>
-        <v>26050</v>
-      </c>
-      <c r="K32" s="36">
-        <f t="shared" si="9"/>
-        <v>33050</v>
-      </c>
-      <c r="L32" s="36">
-        <f t="shared" si="9"/>
-        <v>50050</v>
-      </c>
-      <c r="M32" s="37">
-        <f t="shared" si="9"/>
-        <v>64050</v>
-      </c>
-      <c r="N32" s="36">
-        <f t="shared" si="9"/>
-        <v>81050</v>
-      </c>
-      <c r="O32" s="36">
-        <f t="shared" si="9"/>
-        <v>88050</v>
-      </c>
-      <c r="P32" s="38">
-        <f t="shared" si="9"/>
-        <v>122050</v>
-      </c>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M41" s="28"/>
+      <c r="N41" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E32:P32">
+  <conditionalFormatting sqref="E39:S39">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39:X39">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y39:AB39">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC39">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45B0EBD-32E0-4E9C-8627-232ED617BF9D}">
+  <dimension ref="A2:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="30" customWidth="1"/>
+    <col min="4" max="6" width="15.33203125" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="69">
+        <f>Model!I22</f>
+        <v>157200</v>
+      </c>
+      <c r="C4" s="69">
+        <f>Model!N22</f>
+        <v>522200</v>
+      </c>
+      <c r="D4" s="69">
+        <f>Model!S22</f>
+        <v>882200</v>
+      </c>
+      <c r="E4" s="69">
+        <f>Model!X22</f>
+        <v>1882200</v>
+      </c>
+      <c r="F4" s="69">
+        <f>Model!AC22</f>
+        <v>3582200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="69">
+        <f>Model!I23</f>
+        <v>48437.5</v>
+      </c>
+      <c r="C5" s="69">
+        <f>Model!N23</f>
+        <v>162500</v>
+      </c>
+      <c r="D5" s="69">
+        <f>Model!S23</f>
+        <v>275000</v>
+      </c>
+      <c r="E5" s="69">
+        <f>Model!X23</f>
+        <v>587500</v>
+      </c>
+      <c r="F5" s="69">
+        <f>Model!AC23</f>
+        <v>1118750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="32">
+        <f>B4+B5</f>
+        <v>205637.5</v>
+      </c>
+      <c r="C6" s="32">
+        <f t="shared" ref="C6:D6" si="0">C4+C5</f>
+        <v>684700</v>
+      </c>
+      <c r="D6" s="32">
+        <f t="shared" si="0"/>
+        <v>1157200</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" ref="E6:F6" si="1">E4+E5</f>
+        <v>2469700</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="1"/>
+        <v>4700950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="69">
+        <f>Model!I32+Model!I29</f>
+        <v>126250</v>
+      </c>
+      <c r="C8" s="69">
+        <f>Model!N32+Model!N29</f>
+        <v>268000</v>
+      </c>
+      <c r="D8" s="69">
+        <f>Model!S32+Model!S29</f>
+        <v>382000</v>
+      </c>
+      <c r="E8" s="69">
+        <f>Model!X32+Model!X29</f>
+        <v>772000</v>
+      </c>
+      <c r="F8" s="69">
+        <f>Model!AC32+Model!AC29</f>
+        <v>1147000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="69">
+        <f>Model!I33</f>
+        <v>120000</v>
+      </c>
+      <c r="C9" s="69">
+        <f>Model!N33</f>
+        <v>240000</v>
+      </c>
+      <c r="D9" s="69">
+        <f>Model!S33</f>
+        <v>260000</v>
+      </c>
+      <c r="E9" s="69">
+        <f>Model!X33</f>
+        <v>360000</v>
+      </c>
+      <c r="F9" s="69">
+        <f>Model!AC33</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="69">
+        <f>Model!I34</f>
+        <v>100000</v>
+      </c>
+      <c r="C10" s="69">
+        <f>Model!N34</f>
+        <v>160000</v>
+      </c>
+      <c r="D10" s="69">
+        <f>Model!S34</f>
+        <v>240000</v>
+      </c>
+      <c r="E10" s="69">
+        <f>Model!X34</f>
+        <v>460000</v>
+      </c>
+      <c r="F10" s="69">
+        <f>Model!AC34</f>
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="69">
+        <f>Model!I35</f>
+        <v>40000</v>
+      </c>
+      <c r="C11" s="69">
+        <f>Model!N35</f>
+        <v>60000</v>
+      </c>
+      <c r="D11" s="69">
+        <f>Model!S35</f>
+        <v>80000</v>
+      </c>
+      <c r="E11" s="69">
+        <f>Model!X35</f>
+        <v>160000</v>
+      </c>
+      <c r="F11" s="69">
+        <f>Model!AC35</f>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="32">
+        <f>SUM(B8:B11)</f>
+        <v>386250</v>
+      </c>
+      <c r="C12" s="32">
+        <f t="shared" ref="C12:D12" si="2">SUM(C8:C11)</f>
+        <v>728000</v>
+      </c>
+      <c r="D12" s="32">
+        <f t="shared" si="2"/>
+        <v>962000</v>
+      </c>
+      <c r="E12" s="32">
+        <f t="shared" ref="E12:F12" si="3">SUM(E8:E11)</f>
+        <v>1752000</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="3"/>
+        <v>2337000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="71">
+        <f>B6-B12</f>
+        <v>-180612.5</v>
+      </c>
+      <c r="C14" s="71">
+        <f>C6-C12</f>
+        <v>-43300</v>
+      </c>
+      <c r="D14" s="72">
+        <f>D6-D12</f>
+        <v>195200</v>
+      </c>
+      <c r="E14" s="72">
+        <f>E6-E12</f>
+        <v>717700</v>
+      </c>
+      <c r="F14" s="72">
+        <f>F6-F12</f>
+        <v>2363950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="76">
+        <f>B14/B6</f>
+        <v>-0.87830527019634064</v>
+      </c>
+      <c r="C15" s="76">
+        <f>C14/C6</f>
+        <v>-6.3239374908719143E-2</v>
+      </c>
+      <c r="D15" s="77">
+        <f>D14/D6</f>
+        <v>0.16868302799861734</v>
+      </c>
+      <c r="E15" s="77">
+        <f>E14/E6</f>
+        <v>0.29060209742073934</v>
+      </c>
+      <c r="F15" s="77">
+        <f>F14/F6</f>
+        <v>0.50286644188940532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AABD341-73C2-431B-B706-0060B37736DC}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="30"/>
+    <col min="2" max="2" width="47.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="82"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+    <row r="5" spans="2:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="41"/>
     </row>
-    <row r="5" spans="1:5" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="50">
+        <f>Model!AC39</f>
+        <v>2363950</v>
+      </c>
+      <c r="D6" s="41"/>
     </row>
-    <row r="6" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="50">
+        <f>C6*5</f>
+        <v>11819750</v>
+      </c>
+      <c r="D7" s="41"/>
     </row>
-    <row r="7" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="2:6" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="41"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1.25</v>
-      </c>
+    <row r="9" spans="2:6" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="52">
+        <f>C7*0.13</f>
+        <v>1536567.5</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="52">
+        <v>300000</v>
+      </c>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="52">
+        <f>C10+C11</f>
+        <v>1836567.5</v>
+      </c>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="56">
+        <f>C11/C12</f>
+        <v>0.1633482025572161</v>
+      </c>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="2:6" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="48"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="2:6" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="54"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="58">
+        <f>C13*C7</f>
+        <v>1930734.917175655</v>
+      </c>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="59">
+        <f>C16/C11</f>
+        <v>6.4357830572521832</v>
+      </c>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="2:4" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="55"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>